--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Slit3-Robo2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Slit3-Robo2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.330576611121597</v>
+        <v>0.9766116666666665</v>
       </c>
       <c r="H2">
-        <v>0.330576611121597</v>
+        <v>2.929835</v>
       </c>
       <c r="I2">
-        <v>0.005684460700966775</v>
+        <v>0.01639150952104937</v>
       </c>
       <c r="J2">
-        <v>0.005684460700966775</v>
+        <v>0.01639150952104937</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.654387339777141</v>
+        <v>1.054425</v>
       </c>
       <c r="N2">
-        <v>0.654387339777141</v>
+        <v>3.163275</v>
       </c>
       <c r="O2">
-        <v>0.927334636822324</v>
+        <v>0.5590543736060202</v>
       </c>
       <c r="P2">
-        <v>0.927334636822324</v>
+        <v>0.5590543736060202</v>
       </c>
       <c r="Q2">
-        <v>0.2163251491444043</v>
+        <v>1.029763756625</v>
       </c>
       <c r="R2">
-        <v>0.2163251491444043</v>
+        <v>9.267873809624998</v>
       </c>
       <c r="S2">
-        <v>0.005271397299661797</v>
+        <v>0.009163745087747371</v>
       </c>
       <c r="T2">
-        <v>0.005271397299661797</v>
+        <v>0.009163745087747371</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,123 +584,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.330576611121597</v>
+        <v>0.9766116666666665</v>
       </c>
       <c r="H3">
-        <v>0.330576611121597</v>
+        <v>2.929835</v>
       </c>
       <c r="I3">
-        <v>0.005684460700966775</v>
+        <v>0.01639150952104937</v>
       </c>
       <c r="J3">
-        <v>0.005684460700966775</v>
+        <v>0.01639150952104937</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.0512773833906627</v>
+        <v>0.7756663333333332</v>
       </c>
       <c r="N3">
-        <v>0.0512773833906627</v>
+        <v>2.326999</v>
       </c>
       <c r="O3">
-        <v>0.07266536317767607</v>
+        <v>0.4112569941996302</v>
       </c>
       <c r="P3">
-        <v>0.07266536317767607</v>
+        <v>0.4112569941996303</v>
       </c>
       <c r="Q3">
-        <v>0.01695110362846814</v>
+        <v>0.7575247905738887</v>
       </c>
       <c r="R3">
-        <v>0.01695110362846814</v>
+        <v>6.817723115164999</v>
       </c>
       <c r="S3">
-        <v>0.0004130634013049778</v>
+        <v>0.006741122936021384</v>
       </c>
       <c r="T3">
-        <v>0.0004130634013049778</v>
+        <v>0.006741122936021385</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>53.4308416648769</v>
+        <v>0.9766116666666665</v>
       </c>
       <c r="H4">
-        <v>53.4308416648769</v>
+        <v>2.929835</v>
       </c>
       <c r="I4">
-        <v>0.9187749811853768</v>
+        <v>0.01639150952104937</v>
       </c>
       <c r="J4">
-        <v>0.9187749811853768</v>
+        <v>0.01639150952104937</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.654387339777141</v>
+        <v>0.05599533333333334</v>
       </c>
       <c r="N4">
-        <v>0.654387339777141</v>
+        <v>0.167986</v>
       </c>
       <c r="O4">
-        <v>0.927334636822324</v>
+        <v>0.0296886321943495</v>
       </c>
       <c r="P4">
-        <v>0.927334636822324</v>
+        <v>0.02968863219434951</v>
       </c>
       <c r="Q4">
-        <v>34.96446633913242</v>
+        <v>0.05468569581222223</v>
       </c>
       <c r="R4">
-        <v>34.96446633913242</v>
+        <v>0.49217126231</v>
       </c>
       <c r="S4">
-        <v>0.8520118634989789</v>
+        <v>0.0004866414972806127</v>
       </c>
       <c r="T4">
-        <v>0.8520118634989789</v>
+        <v>0.0004866414972806128</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,185 +708,557 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>53.4308416648769</v>
+        <v>53.540432</v>
       </c>
       <c r="H5">
-        <v>53.4308416648769</v>
+        <v>160.621296</v>
       </c>
       <c r="I5">
-        <v>0.9187749811853768</v>
+        <v>0.898625862093698</v>
       </c>
       <c r="J5">
-        <v>0.9187749811853768</v>
+        <v>0.8986258620936979</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.0512773833906627</v>
+        <v>1.054425</v>
       </c>
       <c r="N5">
-        <v>0.0512773833906627</v>
+        <v>3.163275</v>
       </c>
       <c r="O5">
-        <v>0.07266536317767607</v>
+        <v>0.5590543736060202</v>
       </c>
       <c r="P5">
-        <v>0.07266536317767607</v>
+        <v>0.5590543736060202</v>
       </c>
       <c r="Q5">
-        <v>2.739793752935687</v>
+        <v>56.4543700116</v>
       </c>
       <c r="R5">
-        <v>2.739793752935687</v>
+        <v>508.0893301043999</v>
       </c>
       <c r="S5">
-        <v>0.06676311768639789</v>
+        <v>0.5023807184389621</v>
       </c>
       <c r="T5">
-        <v>0.06676311768639789</v>
+        <v>0.5023807184389621</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.39301861990171</v>
+        <v>53.540432</v>
       </c>
       <c r="H6">
-        <v>4.39301861990171</v>
+        <v>160.621296</v>
       </c>
       <c r="I6">
-        <v>0.07554055811365634</v>
+        <v>0.898625862093698</v>
       </c>
       <c r="J6">
-        <v>0.07554055811365634</v>
+        <v>0.8986258620936979</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.654387339777141</v>
+        <v>0.7756663333333332</v>
       </c>
       <c r="N6">
-        <v>0.654387339777141</v>
+        <v>2.326999</v>
       </c>
       <c r="O6">
-        <v>0.927334636822324</v>
+        <v>0.4112569941996302</v>
       </c>
       <c r="P6">
-        <v>0.927334636822324</v>
+        <v>0.4112569941996303</v>
       </c>
       <c r="Q6">
-        <v>2.874735768268927</v>
+        <v>41.52951057452266</v>
       </c>
       <c r="R6">
-        <v>2.874735768268927</v>
+        <v>373.765595170704</v>
       </c>
       <c r="S6">
-        <v>0.07005137602368317</v>
+        <v>0.3695661709547057</v>
       </c>
       <c r="T6">
-        <v>0.07005137602368317</v>
+        <v>0.3695661709547057</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>53.540432</v>
+      </c>
+      <c r="H7">
+        <v>160.621296</v>
+      </c>
+      <c r="I7">
+        <v>0.898625862093698</v>
+      </c>
+      <c r="J7">
+        <v>0.8986258620936979</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.05599533333333334</v>
+      </c>
+      <c r="N7">
+        <v>0.167986</v>
+      </c>
+      <c r="O7">
+        <v>0.0296886321943495</v>
+      </c>
+      <c r="P7">
+        <v>0.02968863219434951</v>
+      </c>
+      <c r="Q7">
+        <v>2.998014336650667</v>
+      </c>
+      <c r="R7">
+        <v>26.982129029856</v>
+      </c>
+      <c r="S7">
+        <v>0.02667897270003004</v>
+      </c>
+      <c r="T7">
+        <v>0.02667897270003004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.02717499999999999</v>
+      </c>
+      <c r="H8">
+        <v>0.08152499999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.0004561068502845893</v>
+      </c>
+      <c r="J8">
+        <v>0.0004561068502845893</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>1.054425</v>
+      </c>
+      <c r="N8">
+        <v>3.163275</v>
+      </c>
+      <c r="O8">
+        <v>0.5590543736060202</v>
+      </c>
+      <c r="P8">
+        <v>0.5590543736060202</v>
+      </c>
+      <c r="Q8">
+        <v>0.02865399937499999</v>
+      </c>
+      <c r="R8">
+        <v>0.2578859943749999</v>
+      </c>
+      <c r="S8">
+        <v>0.0002549885294832659</v>
+      </c>
+      <c r="T8">
+        <v>0.0002549885294832659</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.02717499999999999</v>
+      </c>
+      <c r="H9">
+        <v>0.08152499999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.0004561068502845893</v>
+      </c>
+      <c r="J9">
+        <v>0.0004561068502845893</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.7756663333333332</v>
+      </c>
+      <c r="N9">
+        <v>2.326999</v>
+      </c>
+      <c r="O9">
+        <v>0.4112569941996302</v>
+      </c>
+      <c r="P9">
+        <v>0.4112569941996303</v>
+      </c>
+      <c r="Q9">
+        <v>0.02107873260833333</v>
+      </c>
+      <c r="R9">
+        <v>0.189708593475</v>
+      </c>
+      <c r="S9">
+        <v>0.000187577132281901</v>
+      </c>
+      <c r="T9">
+        <v>0.000187577132281901</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.02717499999999999</v>
+      </c>
+      <c r="H10">
+        <v>0.08152499999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.0004561068502845893</v>
+      </c>
+      <c r="J10">
+        <v>0.0004561068502845893</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.05599533333333334</v>
+      </c>
+      <c r="N10">
+        <v>0.167986</v>
+      </c>
+      <c r="O10">
+        <v>0.0296886321943495</v>
+      </c>
+      <c r="P10">
+        <v>0.02968863219434951</v>
+      </c>
+      <c r="Q10">
+        <v>0.001521673183333333</v>
+      </c>
+      <c r="R10">
+        <v>0.01369505865</v>
+      </c>
+      <c r="S10">
+        <v>1.354118851942241E-05</v>
+      </c>
+      <c r="T10">
+        <v>1.354118851942241E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>4.39301861990171</v>
-      </c>
-      <c r="H7">
-        <v>4.39301861990171</v>
-      </c>
-      <c r="I7">
-        <v>0.07554055811365634</v>
-      </c>
-      <c r="J7">
-        <v>0.07554055811365634</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.0512773833906627</v>
-      </c>
-      <c r="N7">
-        <v>0.0512773833906627</v>
-      </c>
-      <c r="O7">
-        <v>0.07266536317767607</v>
-      </c>
-      <c r="P7">
-        <v>0.07266536317767607</v>
-      </c>
-      <c r="Q7">
-        <v>0.2252625000150199</v>
-      </c>
-      <c r="R7">
-        <v>0.2252625000150199</v>
-      </c>
-      <c r="S7">
-        <v>0.005489182089973182</v>
-      </c>
-      <c r="T7">
-        <v>0.005489182089973182</v>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>5.036118666666667</v>
+      </c>
+      <c r="H11">
+        <v>15.108356</v>
+      </c>
+      <c r="I11">
+        <v>0.08452652153496815</v>
+      </c>
+      <c r="J11">
+        <v>0.08452652153496815</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>1.054425</v>
+      </c>
+      <c r="N11">
+        <v>3.163275</v>
+      </c>
+      <c r="O11">
+        <v>0.5590543736060202</v>
+      </c>
+      <c r="P11">
+        <v>0.5590543736060202</v>
+      </c>
+      <c r="Q11">
+        <v>5.3102094251</v>
+      </c>
+      <c r="R11">
+        <v>47.7918848259</v>
+      </c>
+      <c r="S11">
+        <v>0.04725492154982739</v>
+      </c>
+      <c r="T11">
+        <v>0.04725492154982739</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>5.036118666666667</v>
+      </c>
+      <c r="H12">
+        <v>15.108356</v>
+      </c>
+      <c r="I12">
+        <v>0.08452652153496815</v>
+      </c>
+      <c r="J12">
+        <v>0.08452652153496815</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.7756663333333332</v>
+      </c>
+      <c r="N12">
+        <v>2.326999</v>
+      </c>
+      <c r="O12">
+        <v>0.4112569941996302</v>
+      </c>
+      <c r="P12">
+        <v>0.4112569941996303</v>
+      </c>
+      <c r="Q12">
+        <v>3.906347700404889</v>
+      </c>
+      <c r="R12">
+        <v>35.157129303644</v>
+      </c>
+      <c r="S12">
+        <v>0.03476212317662131</v>
+      </c>
+      <c r="T12">
+        <v>0.03476212317662132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>5.036118666666667</v>
+      </c>
+      <c r="H13">
+        <v>15.108356</v>
+      </c>
+      <c r="I13">
+        <v>0.08452652153496815</v>
+      </c>
+      <c r="J13">
+        <v>0.08452652153496815</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.05599533333333334</v>
+      </c>
+      <c r="N13">
+        <v>0.167986</v>
+      </c>
+      <c r="O13">
+        <v>0.0296886321943495</v>
+      </c>
+      <c r="P13">
+        <v>0.02968863219434951</v>
+      </c>
+      <c r="Q13">
+        <v>0.2819991434462223</v>
+      </c>
+      <c r="R13">
+        <v>2.537992291016001</v>
+      </c>
+      <c r="S13">
+        <v>0.002509476808519432</v>
+      </c>
+      <c r="T13">
+        <v>0.002509476808519432</v>
       </c>
     </row>
   </sheetData>
